--- a/app/src/test/resources/DatasetsforQTrip.xlsx
+++ b/app/src/test/resources/DatasetsforQTrip.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BILAL\CRIO\Practice_Java_Selenium_Code\Qtrip\app\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50888EE-6378-430E-832D-872362C8C60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7448CF-270E-4F09-8EC8-C1D752AC7501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,6 +187,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -410,14 +413,17 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,7 +878,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G1" sqref="G1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,7 +912,7 @@
       <c r="F1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="16" t="s">
@@ -932,8 +938,8 @@
       <c r="F2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="17">
-        <v>47073</v>
+      <c r="G2" s="20">
+        <v>46707</v>
       </c>
       <c r="H2" s="15">
         <v>2</v>
@@ -958,8 +964,8 @@
       <c r="F3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="17">
-        <v>47083</v>
+      <c r="G3" s="20">
+        <v>46717</v>
       </c>
       <c r="H3" s="15">
         <v>4</v>
@@ -984,8 +990,8 @@
       <c r="F4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="17">
-        <v>47113</v>
+      <c r="G4" s="20">
+        <v>46747</v>
       </c>
       <c r="H4" s="15">
         <v>1</v>
@@ -993,6 +999,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1015,22 +1022,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>39</v>
       </c>
     </row>
